--- a/biology/Zoologie/Crossodactylus/Crossodactylus.xlsx
+++ b/biology/Zoologie/Crossodactylus/Crossodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossodactylus est un genre d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossodactylus est un genre d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 14 espèces de ce genre se rencontrent au Brésil, au Paraguay et dans le nord de l'Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 14 espèces de ce genre se rencontrent au Brésil, au Paraguay et dans le nord de l'Argentine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juin 2017) :
 Crossodactylus aeneus Müller, 1924
 Crossodactylus boulengeri (De Witte, 1930)
 Crossodactylus caramaschii Bastos &amp; Pombal, 1995
@@ -586,9 +602,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Limnocharis[3] a été placé en synonymie avec Crossodactylus par Nieden en 1923[4], le genre Tarsopterus[5] par Hensel en 1867[6] et le genre Calamobates[7] par Lutz en 1930[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Limnocharis a été placé en synonymie avec Crossodactylus par Nieden en 1923, le genre Tarsopterus par Hensel en 1867 et le genre Calamobates par Lutz en 1930.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1841 : Erpétologie générale ou Histoire naturelle complète des reptiles, vol. 8, p. 1-792 (texte intégral).</t>
         </is>
